--- a/07DataPivot/excel_data/라.xlsx
+++ b/07DataPivot/excel_data/라.xlsx
@@ -1,36 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\구채린\Desktop\부엉이\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\UiPath\RPA\07DataPivot\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAA2C4F-FF99-495D-962F-8C3BC95C15E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB79DC9-EED4-48D9-BCED-DC47D2FCE127}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="가" sheetId="3" r:id="rId1"/>
+    <sheet name="Summary" sheetId="4" r:id="rId2"/>
+    <sheet name="라Summary" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="80" r:id="rId5"/>
+    <pivotCache cacheId="84" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="28">
   <si>
     <t>번호</t>
   </si>
@@ -102,6 +104,18 @@
   </si>
   <si>
     <t>FR0DO-715</t>
+  </si>
+  <si>
+    <t>행 레이블</t>
+  </si>
+  <si>
+    <t>(비어 있음)</t>
+  </si>
+  <si>
+    <t>총합계</t>
+  </si>
+  <si>
+    <t>합계 : 금액</t>
   </si>
 </sst>
 </file>
@@ -147,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -164,6 +178,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -179,6 +198,1082 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ICT CoC" refreshedDate="45378.620527314815" createdVersion="1" refreshedVersion="6" recordCount="42" xr:uid="{EE12E390-31B1-4DD0-80BB-E7AAE027C777}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="번호" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="40"/>
+    </cacheField>
+    <cacheField name="품명" numFmtId="0">
+      <sharedItems containsBlank="1" count="7">
+        <s v="네오"/>
+        <s v="콘"/>
+        <s v="튜브"/>
+        <s v="무지"/>
+        <s v="라이언"/>
+        <s v="프로도"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="본부" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="WBS번호" numFmtId="49">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="만기일" numFmtId="14">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2019-08-31T00:00:00" maxDate="2019-09-01T00:00:00"/>
+    </cacheField>
+    <cacheField name="금액" numFmtId="176">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="8534" maxValue="987759"/>
+    </cacheField>
+    <cacheField name="비고" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ICT CoC" refreshedDate="45378.653199884262" createdVersion="1" refreshedVersion="6" recordCount="42" xr:uid="{4693926D-B273-415E-8AF1-68FBA7F33CB5}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="번호" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="40"/>
+    </cacheField>
+    <cacheField name="품명" numFmtId="0">
+      <sharedItems containsBlank="1" count="7">
+        <s v="네오"/>
+        <s v="콘"/>
+        <s v="튜브"/>
+        <s v="무지"/>
+        <s v="라이언"/>
+        <s v="프로도"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="본부" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="WBS번호" numFmtId="49">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="만기일" numFmtId="14">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2019-08-31T00:00:00" maxDate="2019-09-01T00:00:00"/>
+    </cacheField>
+    <cacheField name="금액" numFmtId="176">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="8534" maxValue="987759"/>
+    </cacheField>
+    <cacheField name="비고" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="42">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="238585"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="인천"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="597390"/>
+    <m/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="956194"/>
+    <m/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="3"/>
+    <s v="대전"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="792574"/>
+    <m/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="151380"/>
+    <m/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="2"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="987759"/>
+    <m/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="5"/>
+    <s v="부산"/>
+    <s v="FR0DO-715"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="346564"/>
+    <m/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="3"/>
+    <s v="대전"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="705369"/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="1"/>
+    <s v="인천"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="541749"/>
+    <m/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="900554"/>
+    <m/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="0"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="259359"/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="4"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="95739"/>
+    <m/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="5"/>
+    <s v="인천"/>
+    <s v="FR0DO-715"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="454544"/>
+    <m/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="290924"/>
+    <m/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="대전"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="649728"/>
+    <m/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="4"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="8534"/>
+    <m/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="2"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="844913"/>
+    <m/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="0"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="203719"/>
+    <m/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="0"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="562523"/>
+    <m/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="5"/>
+    <s v="부산"/>
+    <s v="FR0DO-715"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="398903"/>
+    <m/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="3"/>
+    <s v="대전"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="757708"/>
+    <m/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="1"/>
+    <s v="인천"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="594088"/>
+    <m/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="2"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="952892"/>
+    <m/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="0"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="311698"/>
+    <m/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="4"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="148078"/>
+    <m/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="1"/>
+    <s v="인천"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="506883"/>
+    <m/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="2"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="865687"/>
+    <m/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="3"/>
+    <s v="대전"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="702067"/>
+    <m/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="4"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="60873"/>
+    <m/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="2"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="897252"/>
+    <m/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="0"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="227717"/>
+    <m/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="4"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="64097"/>
+    <m/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="5"/>
+    <s v="인천"/>
+    <s v="FR0DO-715"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="422901"/>
+    <m/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="0"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="259281"/>
+    <m/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="1"/>
+    <s v="대전"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="618086"/>
+    <m/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="2"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="976890"/>
+    <m/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="3"/>
+    <s v="대구"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="813270"/>
+    <m/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="0"/>
+    <s v="본사"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="172076"/>
+    <m/>
+  </r>
+  <r>
+    <n v="39"/>
+    <x v="1"/>
+    <s v="인천"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="530881"/>
+    <m/>
+  </r>
+  <r>
+    <n v="40"/>
+    <x v="5"/>
+    <s v="부산"/>
+    <s v="FR0DO-715"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="367260"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="42">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="238585"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="인천"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="597390"/>
+    <m/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="956194"/>
+    <m/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="3"/>
+    <s v="대전"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="792574"/>
+    <m/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="151380"/>
+    <m/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="2"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="987759"/>
+    <m/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="5"/>
+    <s v="부산"/>
+    <s v="FR0DO-715"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="346564"/>
+    <m/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="3"/>
+    <s v="대전"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="705369"/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="1"/>
+    <s v="인천"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="541749"/>
+    <m/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="900554"/>
+    <m/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="0"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="259359"/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="4"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="95739"/>
+    <m/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="5"/>
+    <s v="인천"/>
+    <s v="FR0DO-715"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="454544"/>
+    <m/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="290924"/>
+    <m/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="대전"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="649728"/>
+    <m/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="4"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="8534"/>
+    <m/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="2"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="844913"/>
+    <m/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="0"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="203719"/>
+    <m/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="0"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="562523"/>
+    <m/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="5"/>
+    <s v="부산"/>
+    <s v="FR0DO-715"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="398903"/>
+    <m/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="3"/>
+    <s v="대전"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="757708"/>
+    <m/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="1"/>
+    <s v="인천"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="594088"/>
+    <m/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="2"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="952892"/>
+    <m/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="0"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="311698"/>
+    <m/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="4"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="148078"/>
+    <m/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="1"/>
+    <s v="인천"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="506883"/>
+    <m/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="2"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="865687"/>
+    <m/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="3"/>
+    <s v="대전"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="702067"/>
+    <m/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="4"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="60873"/>
+    <m/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="2"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="897252"/>
+    <m/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="0"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="227717"/>
+    <m/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="4"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="64097"/>
+    <m/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="5"/>
+    <s v="인천"/>
+    <s v="FR0DO-715"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="422901"/>
+    <m/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="0"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="259281"/>
+    <m/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="1"/>
+    <s v="대전"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="618086"/>
+    <m/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="2"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="976890"/>
+    <m/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="3"/>
+    <s v="대구"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="813270"/>
+    <m/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="0"/>
+    <s v="본사"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="172076"/>
+    <m/>
+  </r>
+  <r>
+    <n v="39"/>
+    <x v="1"/>
+    <s v="인천"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="530881"/>
+    <m/>
+  </r>
+  <r>
+    <n v="40"/>
+    <x v="5"/>
+    <s v="부산"/>
+    <s v="FR0DO-715"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="367260"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB4D93D7-A5B1-44EB-8CA0-2D2E3EEEF4C9}" name="Summary" cacheId="84" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="데이터" updatedVersion="6" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
+  <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
+      <items count="8">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="합계 : 금액" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{63C7A5F2-3EF4-4119-80C4-5BF793D3DB6C}" name="라Summary" cacheId="80" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="데이터" updatedVersion="6" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
+  <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
+      <items count="8">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="합계 : 금액" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,10 +1538,291 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A8AFA5-FFBC-4CC4-A144-54899C783B51}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>2525882</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>528701</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>3770988</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>4038805</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>7382141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>1990172</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>20236689</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27A0341-47A2-46E8-8F8E-3167F7C1D4D2}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2525882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="10">
+        <v>528701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="10">
+        <v>3770988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10">
+        <v>4038805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10">
+        <v>7382141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1990172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20236689</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB6A806-182B-4CA1-B751-2C35F0529B2D}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2525882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="10">
+        <v>528701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="10">
+        <v>3770988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10">
+        <v>4038805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10">
+        <v>7382141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1990172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20236689</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>

--- a/07DataPivot/excel_data/라.xlsx
+++ b/07DataPivot/excel_data/라.xlsx
@@ -1,38 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\UiPath\RPA\07DataPivot\excel_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4sooh\Documents\UiPath\RPA수업\07DataPivot\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB79DC9-EED4-48D9-BCED-DC47D2FCE127}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="가" sheetId="3" r:id="rId1"/>
-    <sheet name="Summary" sheetId="4" r:id="rId2"/>
-    <sheet name="라Summary" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Summary" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="80" r:id="rId5"/>
-    <pivotCache cacheId="84" r:id="rId6"/>
+    <pivotCache cacheId="249" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="27">
   <si>
     <t>번호</t>
   </si>
@@ -107,9 +108,6 @@
   </si>
   <si>
     <t>행 레이블</t>
-  </si>
-  <si>
-    <t>(비어 있음)</t>
   </si>
   <si>
     <t>총합계</t>
@@ -121,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
   </numFmts>
@@ -201,80 +199,35 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ICT CoC" refreshedDate="45378.620527314815" createdVersion="1" refreshedVersion="6" recordCount="42" xr:uid="{EE12E390-31B1-4DD0-80BB-E7AAE027C777}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="4sooha@naver.com" refreshedDate="45379.949367361114" createdVersion="1" refreshedVersion="5" recordCount="40">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G1048576" sheet="Sheet1"/>
+    <worksheetSource ref="A1:G41" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="번호" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="40"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="40"/>
     </cacheField>
     <cacheField name="품명" numFmtId="0">
-      <sharedItems containsBlank="1" count="7">
+      <sharedItems count="6">
         <s v="네오"/>
         <s v="콘"/>
         <s v="튜브"/>
         <s v="무지"/>
         <s v="라이언"/>
         <s v="프로도"/>
-        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="본부" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="WBS번호" numFmtId="49">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="만기일" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2019-08-31T00:00:00" maxDate="2019-09-01T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-08-31T00:00:00" maxDate="2019-09-01T00:00:00"/>
     </cacheField>
     <cacheField name="금액" numFmtId="176">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="8534" maxValue="987759"/>
-    </cacheField>
-    <cacheField name="비고" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ICT CoC" refreshedDate="45378.653199884262" createdVersion="1" refreshedVersion="6" recordCount="42" xr:uid="{4693926D-B273-415E-8AF1-68FBA7F33CB5}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G1048576" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="7">
-    <cacheField name="번호" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="40"/>
-    </cacheField>
-    <cacheField name="품명" numFmtId="0">
-      <sharedItems containsBlank="1" count="7">
-        <s v="네오"/>
-        <s v="콘"/>
-        <s v="튜브"/>
-        <s v="무지"/>
-        <s v="라이언"/>
-        <s v="프로도"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="본부" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="WBS번호" numFmtId="49">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="만기일" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2019-08-31T00:00:00" maxDate="2019-09-01T00:00:00"/>
-    </cacheField>
-    <cacheField name="금액" numFmtId="176">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="8534" maxValue="987759"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8534" maxValue="987759"/>
     </cacheField>
     <cacheField name="비고" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -289,7 +242,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="42">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="40">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -650,413 +603,12 @@
     <n v="367260"/>
     <m/>
   </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="42">
-  <r>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="부산"/>
-    <s v="NE0-6154"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="238585"/>
-    <m/>
-  </r>
-  <r>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="인천"/>
-    <s v="C0N-319"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="597390"/>
-    <m/>
-  </r>
-  <r>
-    <n v="3"/>
-    <x v="2"/>
-    <s v="대구"/>
-    <s v="Y0U-TUBE"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="956194"/>
-    <m/>
-  </r>
-  <r>
-    <n v="4"/>
-    <x v="3"/>
-    <s v="대전"/>
-    <s v="MUZ1-877"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="792574"/>
-    <m/>
-  </r>
-  <r>
-    <n v="5"/>
-    <x v="4"/>
-    <s v="본사"/>
-    <s v="L10N-3215"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="151380"/>
-    <m/>
-  </r>
-  <r>
-    <n v="6"/>
-    <x v="2"/>
-    <s v="대구"/>
-    <s v="Y0U-TUBE"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="987759"/>
-    <m/>
-  </r>
-  <r>
-    <n v="7"/>
-    <x v="5"/>
-    <s v="부산"/>
-    <s v="FR0DO-715"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="346564"/>
-    <m/>
-  </r>
-  <r>
-    <n v="8"/>
-    <x v="3"/>
-    <s v="대전"/>
-    <s v="MUZ1-877"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="705369"/>
-    <m/>
-  </r>
-  <r>
-    <n v="9"/>
-    <x v="1"/>
-    <s v="인천"/>
-    <s v="C0N-319"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="541749"/>
-    <m/>
-  </r>
-  <r>
-    <n v="10"/>
-    <x v="2"/>
-    <s v="대구"/>
-    <s v="Y0U-TUBE"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="900554"/>
-    <m/>
-  </r>
-  <r>
-    <n v="11"/>
-    <x v="0"/>
-    <s v="부산"/>
-    <s v="NE0-6154"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="259359"/>
-    <m/>
-  </r>
-  <r>
-    <n v="12"/>
-    <x v="4"/>
-    <s v="본사"/>
-    <s v="L10N-3215"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="95739"/>
-    <m/>
-  </r>
-  <r>
-    <n v="13"/>
-    <x v="5"/>
-    <s v="인천"/>
-    <s v="FR0DO-715"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="454544"/>
-    <m/>
-  </r>
-  <r>
-    <n v="14"/>
-    <x v="0"/>
-    <s v="부산"/>
-    <s v="NE0-6154"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="290924"/>
-    <m/>
-  </r>
-  <r>
-    <n v="15"/>
-    <x v="1"/>
-    <s v="대전"/>
-    <s v="C0N-319"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="649728"/>
-    <m/>
-  </r>
-  <r>
-    <n v="16"/>
-    <x v="4"/>
-    <s v="본사"/>
-    <s v="L10N-3215"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="8534"/>
-    <m/>
-  </r>
-  <r>
-    <n v="17"/>
-    <x v="2"/>
-    <s v="대구"/>
-    <s v="Y0U-TUBE"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="844913"/>
-    <m/>
-  </r>
-  <r>
-    <n v="18"/>
-    <x v="0"/>
-    <s v="부산"/>
-    <s v="NE0-6154"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="203719"/>
-    <m/>
-  </r>
-  <r>
-    <n v="19"/>
-    <x v="0"/>
-    <s v="부산"/>
-    <s v="NE0-6154"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="562523"/>
-    <m/>
-  </r>
-  <r>
-    <n v="20"/>
-    <x v="5"/>
-    <s v="부산"/>
-    <s v="FR0DO-715"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="398903"/>
-    <m/>
-  </r>
-  <r>
-    <n v="21"/>
-    <x v="3"/>
-    <s v="대전"/>
-    <s v="MUZ1-877"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="757708"/>
-    <m/>
-  </r>
-  <r>
-    <n v="22"/>
-    <x v="1"/>
-    <s v="인천"/>
-    <s v="C0N-319"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="594088"/>
-    <m/>
-  </r>
-  <r>
-    <n v="23"/>
-    <x v="2"/>
-    <s v="대구"/>
-    <s v="Y0U-TUBE"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="952892"/>
-    <m/>
-  </r>
-  <r>
-    <n v="24"/>
-    <x v="0"/>
-    <s v="부산"/>
-    <s v="NE0-6154"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="311698"/>
-    <m/>
-  </r>
-  <r>
-    <n v="25"/>
-    <x v="4"/>
-    <s v="본사"/>
-    <s v="L10N-3215"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="148078"/>
-    <m/>
-  </r>
-  <r>
-    <n v="26"/>
-    <x v="1"/>
-    <s v="인천"/>
-    <s v="C0N-319"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="506883"/>
-    <m/>
-  </r>
-  <r>
-    <n v="27"/>
-    <x v="2"/>
-    <s v="대구"/>
-    <s v="Y0U-TUBE"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="865687"/>
-    <m/>
-  </r>
-  <r>
-    <n v="28"/>
-    <x v="3"/>
-    <s v="대전"/>
-    <s v="MUZ1-877"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="702067"/>
-    <m/>
-  </r>
-  <r>
-    <n v="29"/>
-    <x v="4"/>
-    <s v="본사"/>
-    <s v="L10N-3215"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="60873"/>
-    <m/>
-  </r>
-  <r>
-    <n v="30"/>
-    <x v="2"/>
-    <s v="대구"/>
-    <s v="Y0U-TUBE"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="897252"/>
-    <m/>
-  </r>
-  <r>
-    <n v="31"/>
-    <x v="0"/>
-    <s v="부산"/>
-    <s v="NE0-6154"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="227717"/>
-    <m/>
-  </r>
-  <r>
-    <n v="32"/>
-    <x v="4"/>
-    <s v="본사"/>
-    <s v="L10N-3215"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="64097"/>
-    <m/>
-  </r>
-  <r>
-    <n v="33"/>
-    <x v="5"/>
-    <s v="인천"/>
-    <s v="FR0DO-715"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="422901"/>
-    <m/>
-  </r>
-  <r>
-    <n v="34"/>
-    <x v="0"/>
-    <s v="부산"/>
-    <s v="NE0-6154"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="259281"/>
-    <m/>
-  </r>
-  <r>
-    <n v="35"/>
-    <x v="1"/>
-    <s v="대전"/>
-    <s v="C0N-319"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="618086"/>
-    <m/>
-  </r>
-  <r>
-    <n v="36"/>
-    <x v="2"/>
-    <s v="대구"/>
-    <s v="Y0U-TUBE"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="976890"/>
-    <m/>
-  </r>
-  <r>
-    <n v="37"/>
-    <x v="3"/>
-    <s v="대구"/>
-    <s v="MUZ1-877"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="813270"/>
-    <m/>
-  </r>
-  <r>
-    <n v="38"/>
-    <x v="0"/>
-    <s v="본사"/>
-    <s v="NE0-6154"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="172076"/>
-    <m/>
-  </r>
-  <r>
-    <n v="39"/>
-    <x v="1"/>
-    <s v="인천"/>
-    <s v="C0N-319"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="530881"/>
-    <m/>
-  </r>
-  <r>
-    <n v="40"/>
-    <x v="5"/>
-    <s v="부산"/>
-    <s v="FR0DO-715"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="367260"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB4D93D7-A5B1-44EB-8CA0-2D2E3EEEF4C9}" name="Summary" cacheId="84" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="데이터" updatedVersion="6" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
-  <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Summary" cacheId="249" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="데이터" updatedVersion="5" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
+  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0" includeNewItemsInFilter="1">
       <extLst>
@@ -1066,14 +618,13 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
-      <items count="8">
+      <items count="7">
         <item x="0"/>
         <item x="4"/>
         <item x="3"/>
         <item x="1"/>
         <item x="2"/>
         <item x="5"/>
-        <item x="6"/>
         <item t="default"/>
       </items>
       <extLst>
@@ -1096,14 +647,14 @@
         </ext>
       </extLst>
     </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
+    <pivotField numFmtId="14" showAll="0" includeNewItemsInFilter="1">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
         </ext>
       </extLst>
     </pivotField>
-    <pivotField dataField="1" showAll="0" includeNewItemsInFilter="1">
+    <pivotField dataField="1" numFmtId="176" showAll="0" includeNewItemsInFilter="1">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
@@ -1121,7 +672,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
@@ -1140,9 +691,6 @@
     <i>
       <x v="5"/>
     </i>
-    <i>
-      <x v="6"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -1157,120 +705,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{63C7A5F2-3EF4-4119-80C4-5BF793D3DB6C}" name="라Summary" cacheId="80" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="데이터" updatedVersion="6" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
-  <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
-      <items count="8">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField dataField="1" showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="합계 : 금액" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -1538,98 +972,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A8AFA5-FFBC-4CC4-A144-54899C783B51}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1">
+      <c r="B2" s="10">
         <v>2525882</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="10">
         <v>528701</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="10">
         <v>3770988</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="10">
         <v>4038805</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="10">
         <v>7382141</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="10">
         <v>1990172</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
+      <c r="B8" s="10">
         <v>20236689</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1639,201 +1056,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27A0341-47A2-46E8-8F8E-3167F7C1D4D2}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="10">
-        <v>2525882</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="10">
-        <v>528701</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="10">
-        <v>3770988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="10">
-        <v>4038805</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="10">
-        <v>7382141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1990172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10">
-        <v>20236689</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB6A806-182B-4CA1-B751-2C35F0529B2D}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="10">
-        <v>2525882</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="10">
-        <v>528701</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="10">
-        <v>3770988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="10">
-        <v>4038805</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="10">
-        <v>7382141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1990172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10">
-        <v>20236689</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="11.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.8984375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1856,7 +1093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1877,7 +1114,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1897,7 +1134,7 @@
         <v>597390</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1917,7 +1154,7 @@
         <v>956194</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1937,7 +1174,7 @@
         <v>792574</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1957,7 +1194,7 @@
         <v>151380</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1977,7 +1214,7 @@
         <v>987759</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1997,7 +1234,7 @@
         <v>346564</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2017,7 +1254,7 @@
         <v>705369</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2037,7 +1274,7 @@
         <v>541749</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2057,7 +1294,7 @@
         <v>900554</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2077,7 +1314,7 @@
         <v>259359</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2097,7 +1334,7 @@
         <v>95739</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2117,7 +1354,7 @@
         <v>454544</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2137,7 +1374,7 @@
         <v>290924</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2157,7 +1394,7 @@
         <v>649728</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2177,7 +1414,7 @@
         <v>8534</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2197,7 +1434,7 @@
         <v>844913</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2217,7 +1454,7 @@
         <v>203719</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2237,7 +1474,7 @@
         <v>562523</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2257,7 +1494,7 @@
         <v>398903</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2277,7 +1514,7 @@
         <v>757708</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2297,7 +1534,7 @@
         <v>594088</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2317,7 +1554,7 @@
         <v>952892</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2337,7 +1574,7 @@
         <v>311698</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2357,7 +1594,7 @@
         <v>148078</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2377,7 +1614,7 @@
         <v>506883</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2397,7 +1634,7 @@
         <v>865687</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2417,7 +1654,7 @@
         <v>702067</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2437,7 +1674,7 @@
         <v>60873</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2457,7 +1694,7 @@
         <v>897252</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2477,7 +1714,7 @@
         <v>227717</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2497,7 +1734,7 @@
         <v>64097</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2517,7 +1754,7 @@
         <v>422901</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2537,7 +1774,7 @@
         <v>259281</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2557,7 +1794,7 @@
         <v>618086</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2577,7 +1814,7 @@
         <v>976890</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2597,7 +1834,7 @@
         <v>813270</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2617,7 +1854,7 @@
         <v>172076</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2637,7 +1874,7 @@
         <v>530881</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2657,7 +1894,7 @@
         <v>367260</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
